--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H2">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I2">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J2">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>138.2446559393301</v>
+        <v>175.11574697127</v>
       </c>
       <c r="R2">
-        <v>138.2446559393301</v>
+        <v>700.46298788508</v>
       </c>
       <c r="S2">
-        <v>0.008605104541043551</v>
+        <v>0.009932272476839312</v>
       </c>
       <c r="T2">
-        <v>0.008605104541043551</v>
+        <v>0.005118461291004867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H3">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I3">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J3">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>300.0717683711289</v>
+        <v>356.80439258268</v>
       </c>
       <c r="R3">
-        <v>300.0717683711289</v>
+        <v>2140.82635549608</v>
       </c>
       <c r="S3">
-        <v>0.01867811033348421</v>
+        <v>0.02023734877849529</v>
       </c>
       <c r="T3">
-        <v>0.01867811033348421</v>
+        <v>0.0156435629303621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H4">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I4">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J4">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>627.0077898819889</v>
+        <v>727.6009152333199</v>
       </c>
       <c r="R4">
-        <v>627.0077898819889</v>
+        <v>4365.60549139992</v>
       </c>
       <c r="S4">
-        <v>0.03902839891583971</v>
+        <v>0.04126830778776643</v>
       </c>
       <c r="T4">
-        <v>0.03902839891583971</v>
+        <v>0.03190059018963438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H5">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I5">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J5">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>726.3672943887856</v>
+        <v>834.55175608446</v>
       </c>
       <c r="R5">
-        <v>726.3672943887856</v>
+        <v>5007.310536506759</v>
       </c>
       <c r="S5">
-        <v>0.04521307866072979</v>
+        <v>0.04733438072142944</v>
       </c>
       <c r="T5">
-        <v>0.04521307866072979</v>
+        <v>0.03658969224132018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H6">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I6">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J6">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>89.94838568322794</v>
+        <v>104.33596534178</v>
       </c>
       <c r="R6">
-        <v>89.94838568322794</v>
+        <v>626.01579205068</v>
       </c>
       <c r="S6">
-        <v>0.005598880165335035</v>
+        <v>0.005917761565318504</v>
       </c>
       <c r="T6">
-        <v>0.005598880165335035</v>
+        <v>0.004574456687345848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3244294017864</v>
+        <v>11.66862</v>
       </c>
       <c r="H7">
-        <v>10.3244294017864</v>
+        <v>23.33724</v>
       </c>
       <c r="I7">
-        <v>0.1336883470326069</v>
+        <v>0.1418293637844402</v>
       </c>
       <c r="J7">
-        <v>0.1336883470326069</v>
+        <v>0.1026592641785845</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>266.1201300872239</v>
+        <v>302.18260803291</v>
       </c>
       <c r="R7">
-        <v>266.1201300872239</v>
+        <v>1208.73043213164</v>
       </c>
       <c r="S7">
-        <v>0.01656477441617457</v>
+        <v>0.01713929245459123</v>
       </c>
       <c r="T7">
-        <v>0.01656477441617457</v>
+        <v>0.008832500838917153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H8">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I8">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J8">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>180.2481639222506</v>
+        <v>226.92692387911</v>
       </c>
       <c r="R8">
-        <v>180.2481639222506</v>
+        <v>1361.56154327466</v>
       </c>
       <c r="S8">
-        <v>0.01121963292789282</v>
+        <v>0.01287091583298945</v>
       </c>
       <c r="T8">
-        <v>0.01121963292789282</v>
+        <v>0.009949276657163744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H9">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I9">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J9">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>391.2439502727368</v>
+        <v>462.3714579399066</v>
       </c>
       <c r="R9">
-        <v>391.2439502727368</v>
+        <v>4161.34312145916</v>
       </c>
       <c r="S9">
-        <v>0.02435316627808926</v>
+        <v>0.02622493627900889</v>
       </c>
       <c r="T9">
-        <v>0.02435316627808926</v>
+        <v>0.03040799307624883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H10">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I10">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J10">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>817.5144429508749</v>
+        <v>942.8748719703156</v>
       </c>
       <c r="R10">
-        <v>817.5144429508749</v>
+        <v>8485.873847732841</v>
       </c>
       <c r="S10">
-        <v>0.05088657639317753</v>
+        <v>0.05347828680141819</v>
       </c>
       <c r="T10">
-        <v>0.05088657639317753</v>
+        <v>0.0620084395052963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H11">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I11">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J11">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>947.0628015032257</v>
+        <v>1081.469063186113</v>
       </c>
       <c r="R11">
-        <v>947.0628015032257</v>
+        <v>9733.221568675021</v>
       </c>
       <c r="S11">
-        <v>0.05895037575590155</v>
+        <v>0.06133911767854265</v>
       </c>
       <c r="T11">
-        <v>0.05895037575590155</v>
+        <v>0.07112312670003663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H12">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I12">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J12">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>117.2778163250486</v>
+        <v>135.2056572550956</v>
       </c>
       <c r="R12">
-        <v>117.2778163250486</v>
+        <v>1216.85091529586</v>
       </c>
       <c r="S12">
-        <v>0.007300013609677891</v>
+        <v>0.00766863889452543</v>
       </c>
       <c r="T12">
-        <v>0.007300013609677891</v>
+        <v>0.008891839275721378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.4613481481237</v>
+        <v>15.12099333333333</v>
       </c>
       <c r="H13">
-        <v>13.4613481481237</v>
+        <v>45.36298</v>
       </c>
       <c r="I13">
-        <v>0.1743074907792694</v>
+        <v>0.1837921591632454</v>
       </c>
       <c r="J13">
-        <v>0.1743074907792694</v>
+        <v>0.1995493103618014</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>346.976629982888</v>
+        <v>391.58882554363</v>
       </c>
       <c r="R13">
-        <v>346.976629982888</v>
+        <v>2349.53295326178</v>
       </c>
       <c r="S13">
-        <v>0.02159772581453036</v>
+        <v>0.02221026367676077</v>
       </c>
       <c r="T13">
-        <v>0.02159772581453036</v>
+        <v>0.01716863514733456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H14">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I14">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J14">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>197.2952757305233</v>
+        <v>229.628377468378</v>
       </c>
       <c r="R14">
-        <v>197.2952757305233</v>
+        <v>1377.770264810268</v>
       </c>
       <c r="S14">
-        <v>0.01228073853256387</v>
+        <v>0.01302413776531829</v>
       </c>
       <c r="T14">
-        <v>0.01228073853256387</v>
+        <v>0.01006771790986602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H15">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I15">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J15">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>428.2461544532272</v>
+        <v>467.8757630848186</v>
       </c>
       <c r="R15">
-        <v>428.2461544532272</v>
+        <v>4210.881867763367</v>
       </c>
       <c r="S15">
-        <v>0.02665638612451786</v>
+        <v>0.02653713126684116</v>
       </c>
       <c r="T15">
-        <v>0.02665638612451786</v>
+        <v>0.0307699853010323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H16">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I16">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J16">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>894.8315140965909</v>
+        <v>954.0993342931368</v>
       </c>
       <c r="R16">
-        <v>894.8315140965909</v>
+        <v>8586.894008638232</v>
       </c>
       <c r="S16">
-        <v>0.05569921436095669</v>
+        <v>0.05411491954361566</v>
       </c>
       <c r="T16">
-        <v>0.05569921436095669</v>
+        <v>0.06274661952643706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H17">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I17">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J17">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>1036.632010505795</v>
+        <v>1094.343421294377</v>
       </c>
       <c r="R17">
-        <v>1036.632010505795</v>
+        <v>9849.090791649394</v>
       </c>
       <c r="S17">
-        <v>0.06452565388791079</v>
+        <v>0.06206932975202718</v>
       </c>
       <c r="T17">
-        <v>0.06452565388791079</v>
+        <v>0.07196981259618059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H18">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I18">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J18">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>128.3694580040481</v>
+        <v>136.8152142077809</v>
       </c>
       <c r="R18">
-        <v>128.3694580040481</v>
+        <v>1231.336927870028</v>
       </c>
       <c r="S18">
-        <v>0.007990418135849763</v>
+        <v>0.00775993027464149</v>
       </c>
       <c r="T18">
-        <v>0.007990418135849763</v>
+        <v>0.008997692255685044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.7344657321127</v>
+        <v>15.30100133333333</v>
       </c>
       <c r="H19">
-        <v>14.7344657321127</v>
+        <v>45.903004</v>
       </c>
       <c r="I19">
-        <v>0.1907927587546779</v>
+        <v>0.1859801145612367</v>
       </c>
       <c r="J19">
-        <v>0.1907927587546779</v>
+        <v>0.2019248469067731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>379.7922175454184</v>
+        <v>396.250498209874</v>
       </c>
       <c r="R19">
-        <v>379.7922175454184</v>
+        <v>2377.502989259244</v>
       </c>
       <c r="S19">
-        <v>0.02364034771287896</v>
+        <v>0.02247466595879292</v>
       </c>
       <c r="T19">
-        <v>0.02364034771287896</v>
+        <v>0.01737301931757215</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H20">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I20">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J20">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>310.6956194245078</v>
+        <v>360.7423977151785</v>
       </c>
       <c r="R20">
-        <v>310.6956194245078</v>
+        <v>2164.454386291071</v>
       </c>
       <c r="S20">
-        <v>0.01933939700906406</v>
+        <v>0.02046070584756335</v>
       </c>
       <c r="T20">
-        <v>0.01933939700906406</v>
+        <v>0.01581621896372653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H21">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I21">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J21">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>674.3912327923229</v>
+        <v>735.025115226794</v>
       </c>
       <c r="R21">
-        <v>674.3912327923229</v>
+        <v>6615.226037041146</v>
       </c>
       <c r="S21">
-        <v>0.04197780391806223</v>
+        <v>0.04168939600246496</v>
       </c>
       <c r="T21">
-        <v>0.04197780391806223</v>
+        <v>0.04833913995095738</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H22">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I22">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J22">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>1409.158078029936</v>
+        <v>1498.874334722673</v>
       </c>
       <c r="R22">
-        <v>1409.158078029936</v>
+        <v>13489.86901250405</v>
       </c>
       <c r="S22">
-        <v>0.08771371662731896</v>
+        <v>0.08501364702198529</v>
       </c>
       <c r="T22">
-        <v>0.08771371662731896</v>
+        <v>0.09857390548172144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H23">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I23">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J23">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>1632.461919966504</v>
+        <v>1719.195484782493</v>
       </c>
       <c r="R23">
-        <v>1632.461919966504</v>
+        <v>15472.75936304244</v>
       </c>
       <c r="S23">
-        <v>0.1016133707674698</v>
+        <v>0.09750989440494483</v>
       </c>
       <c r="T23">
-        <v>0.1016133707674698</v>
+        <v>0.1130633898357512</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H24">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I24">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J24">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>202.1529817279132</v>
+        <v>214.9344473943657</v>
       </c>
       <c r="R24">
-        <v>202.1529817279132</v>
+        <v>1934.410026549291</v>
       </c>
       <c r="S24">
-        <v>0.01258310875912466</v>
+        <v>0.01219072261119935</v>
       </c>
       <c r="T24">
-        <v>0.01258310875912466</v>
+        <v>0.01413522629042702</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.2034646576167</v>
+        <v>24.037621</v>
       </c>
       <c r="H25">
-        <v>23.2034646576167</v>
+        <v>72.112863</v>
       </c>
       <c r="I25">
-        <v>0.300455619849515</v>
+        <v>0.2921716958236277</v>
       </c>
       <c r="J25">
-        <v>0.300455619849515</v>
+        <v>0.3172206076378816</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N25">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O25">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P25">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q25">
-        <v>598.0871961883757</v>
+        <v>622.5030041844406</v>
       </c>
       <c r="R25">
-        <v>598.0871961883757</v>
+        <v>3735.018025106643</v>
       </c>
       <c r="S25">
-        <v>0.03722822276847527</v>
+        <v>0.03530732993546997</v>
       </c>
       <c r="T25">
-        <v>0.03722822276847527</v>
+        <v>0.02729272711529803</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H26">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I26">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J26">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N26">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O26">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P26">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q26">
-        <v>103.922763645356</v>
+        <v>124.9076614394</v>
       </c>
       <c r="R26">
-        <v>103.922763645356</v>
+        <v>749.4459686364</v>
       </c>
       <c r="S26">
-        <v>0.006468721986294394</v>
+        <v>0.007084553784100609</v>
       </c>
       <c r="T26">
-        <v>0.006468721986294394</v>
+        <v>0.005476392395474304</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H27">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I27">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J27">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N27">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P27">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q27">
-        <v>225.5731858073584</v>
+        <v>254.5036813629333</v>
       </c>
       <c r="R27">
-        <v>225.5731858073584</v>
+        <v>2290.5331322664</v>
       </c>
       <c r="S27">
-        <v>0.01404091053169116</v>
+        <v>0.01443502342522094</v>
       </c>
       <c r="T27">
-        <v>0.01404091053169116</v>
+        <v>0.01673750844233497</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H28">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I28">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J28">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N28">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O28">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P28">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q28">
-        <v>471.3410576991793</v>
+        <v>518.9877572681778</v>
       </c>
       <c r="R28">
-        <v>471.3410576991793</v>
+        <v>4670.8898154136</v>
       </c>
       <c r="S28">
-        <v>0.02933884893002637</v>
+        <v>0.02943611814748439</v>
       </c>
       <c r="T28">
-        <v>0.02933884893002637</v>
+        <v>0.03413138042729213</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H29">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I29">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J29">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N29">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O29">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P29">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q29">
-        <v>546.032655957495</v>
+        <v>595.2743257278668</v>
       </c>
       <c r="R29">
-        <v>546.032655957495</v>
+        <v>5357.4689315508</v>
       </c>
       <c r="S29">
-        <v>0.03398806308578007</v>
+        <v>0.033762964803879</v>
       </c>
       <c r="T29">
-        <v>0.03398806308578007</v>
+        <v>0.03914838873457067</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H30">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I30">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J30">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N30">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O30">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P30">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q30">
-        <v>67.61697052319865</v>
+        <v>74.42141360937778</v>
       </c>
       <c r="R30">
-        <v>67.61697052319865</v>
+        <v>669.7927224844001</v>
       </c>
       <c r="S30">
-        <v>0.004208850578326407</v>
+        <v>0.004221058190735803</v>
       </c>
       <c r="T30">
-        <v>0.004208850578326407</v>
+        <v>0.004894345857422556</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.76119141246142</v>
+        <v>8.323066666666668</v>
       </c>
       <c r="H31">
-        <v>7.76119141246142</v>
+        <v>24.9692</v>
       </c>
       <c r="I31">
-        <v>0.1004976459770359</v>
+        <v>0.101164940675831</v>
       </c>
       <c r="J31">
-        <v>0.1004976459770359</v>
+        <v>0.1098381684864154</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N31">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O31">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P31">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q31">
-        <v>200.0506941292763</v>
+        <v>215.5427113202</v>
       </c>
       <c r="R31">
-        <v>200.0506941292763</v>
+        <v>1293.2562679212</v>
       </c>
       <c r="S31">
-        <v>0.01245225086491753</v>
+        <v>0.01222522232441023</v>
       </c>
       <c r="T31">
-        <v>0.01245225086491753</v>
+        <v>0.009450152629320785</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H32">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I32">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J32">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N32">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O32">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P32">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q32">
-        <v>103.675092453665</v>
+        <v>117.3720639451028</v>
       </c>
       <c r="R32">
-        <v>103.675092453665</v>
+        <v>469.488255780411</v>
       </c>
       <c r="S32">
-        <v>0.006453305574847426</v>
+        <v>0.006657147289347015</v>
       </c>
       <c r="T32">
-        <v>0.006453305574847426</v>
+        <v>0.003430670150108886</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H33">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I33">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J33">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N33">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P33">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q33">
-        <v>225.0355944483268</v>
+        <v>239.149640774331</v>
       </c>
       <c r="R33">
-        <v>225.0355944483268</v>
+        <v>1434.897844645986</v>
       </c>
       <c r="S33">
-        <v>0.01400744790115838</v>
+        <v>0.01356416790603414</v>
       </c>
       <c r="T33">
-        <v>0.01400744790115838</v>
+        <v>0.01048516367230491</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H34">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I34">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J34">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N34">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O34">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P34">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q34">
-        <v>470.217746526936</v>
+        <v>487.677565417869</v>
       </c>
       <c r="R34">
-        <v>470.217746526936</v>
+        <v>2926.065392507214</v>
       </c>
       <c r="S34">
-        <v>0.02926892789037679</v>
+        <v>0.02766025639811012</v>
       </c>
       <c r="T34">
-        <v>0.02926892789037679</v>
+        <v>0.02138150438428918</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H35">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I35">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J35">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N35">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O35">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P35">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q35">
-        <v>544.7313379992403</v>
+        <v>559.3618151125695</v>
       </c>
       <c r="R35">
-        <v>544.7313379992403</v>
+        <v>3356.170890675417</v>
       </c>
       <c r="S35">
-        <v>0.03390706192883963</v>
+        <v>0.03172606722654671</v>
       </c>
       <c r="T35">
-        <v>0.03390706192883963</v>
+        <v>0.02452439470326132</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H36">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I36">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J36">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N36">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O36">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P36">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q36">
-        <v>67.4558241575654</v>
+        <v>69.93161841623849</v>
       </c>
       <c r="R36">
-        <v>67.4558241575654</v>
+        <v>419.589710497431</v>
       </c>
       <c r="S36">
-        <v>0.004198819945943106</v>
+        <v>0.00396640451169928</v>
       </c>
       <c r="T36">
-        <v>0.004198819945943106</v>
+        <v>0.003066048782633737</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.74269475726636</v>
+        <v>7.8209415</v>
       </c>
       <c r="H37">
-        <v>7.74269475726636</v>
+        <v>15.641883</v>
       </c>
       <c r="I37">
-        <v>0.1002581376068948</v>
+        <v>0.09506172599161901</v>
       </c>
       <c r="J37">
-        <v>0.1002581376068948</v>
+        <v>0.06880780242854384</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N37">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O37">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P37">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q37">
-        <v>199.5739285769024</v>
+        <v>202.5391605642157</v>
       </c>
       <c r="R37">
-        <v>199.5739285769024</v>
+        <v>810.1566422568629</v>
       </c>
       <c r="S37">
-        <v>0.01242257436572941</v>
+        <v>0.01148768265988175</v>
       </c>
       <c r="T37">
-        <v>0.01242257436572941</v>
+        <v>0.005920020735945809</v>
       </c>
     </row>
   </sheetData>
